--- a/testData/testexcel.xlsx
+++ b/testData/testexcel.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="59">
   <si>
     <t>Honda</t>
   </si>
@@ -360,6 +360,17 @@
 Command: [9d5f3b27ebdfc40145df5d7aafb7feea, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
 Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 121.0.2277.98, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:51304}, msedge: {msedgedriverVersion: 121.0.2277.98 (a3414ba067bc..., userDataDir: C:\Windows\SystemTemp\scope...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51304/devtoo..., se:cdpVersion: 121.0.2277.98, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
 Session ID: 9d5f3b27ebdfc40145df5d7aafb7feea</t>
+  </si>
+  <si>
+    <t>no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=120.0.6099.130)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5b462c20b0fca5fac763e8ab5ad96b1a, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50807}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50807/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5b462c20b0fca5fac763e8ab5ad96b1a</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1057,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testexcel.xlsx
+++ b/testData/testexcel.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="67">
   <si>
     <t>Honda</t>
   </si>
@@ -371,6 +371,86 @@
 Command: [5b462c20b0fca5fac763e8ab5ad96b1a, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
 Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50807}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50807/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
 Session ID: 5b462c20b0fca5fac763e8ab5ad96b1a</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='o6cuMc Jj6Lae']"}
+  (Session info: MicrosoftEdge=121.0.2277.106)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [9690bf137bfd9005b483b38c6ab66cd8, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 121.0.2277.106, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:63548}, msedge: {msedgedriverVersion: 121.0.2277.106 (3a400d91a81..., userDataDir: C:\Windows\SystemTemp\scope...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:63548/devtoo..., se:cdpVersion: 121.0.2277.106, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9690bf137bfd9005b483b38c6ab66cd8</t>
+  </si>
+  <si>
+    <t>no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=121.0.2277.106)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [361b4a56d32937417ec61fa8c0365478, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 121.0.2277.106, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:64287}, msedge: {msedgedriverVersion: 121.0.2277.106 (3a400d91a81..., userDataDir: C:\Windows\SystemTemp\scope...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64287/devtoo..., se:cdpVersion: 121.0.2277.106, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 361b4a56d32937417ec61fa8c0365478</t>
+  </si>
+  <si>
+    <t>no such window: target window already closed
+from unknown error: web view not found
+  (Session info: MicrosoftEdge=121.0.2277.106)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [536f87c2cf55eddad8d23e38b3ababd6, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 121.0.2277.106, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:64429}, msedge: {msedgedriverVersion: 121.0.2277.106 (3a400d91a81..., userDataDir: C:\Windows\SystemTemp\scope...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64429/devtoo..., se:cdpVersion: 121.0.2277.106, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 536f87c2cf55eddad8d23e38b3ababd6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='o6cuMc Jj6Lae']"}
+  (Session info: MicrosoftEdge=121.0.2277.106)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [c813776520b9ed0c3571cdbf46807a62, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 121.0.2277.106, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:49283}, msedge: {msedgedriverVersion: 121.0.2277.106 (3a400d91a81..., userDataDir: C:\Windows\SystemTemp\scope...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49283/devtoo..., se:cdpVersion: 121.0.2277.106, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c813776520b9ed0c3571cdbf46807a62</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='o6cuMc Jj6Lae']"}
+  (Session info: MicrosoftEdge=121.0.2277.106)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [daa42f3809254e09cbb9862ff44222e6, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
+Capabilities {acceptInsecureCerts: false, browserName: MicrosoftEdge, browserVersion: 121.0.2277.106, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:64719}, msedge: {msedgedriverVersion: 121.0.2277.106 (3a400d91a81..., userDataDir: C:\Windows\SystemTemp\scope...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64719/devtoo..., se:cdpVersion: 121.0.2277.106, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: daa42f3809254e09cbb9862ff44222e6</t>
+  </si>
+  <si>
+    <t>no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=120.0.6099.130)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.remote.RemoteWebDriver
+Command: [acb67e4859b7909487818ad65c66618d, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51002}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: Windows 11, proxy: Proxy(), se:bidiEnabled: false, se:cdp: ws://10.141.102.209:4444/se..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: acb67e4859b7909487818ad65c66618d</t>
+  </si>
+  <si>
+    <t>Launch Date : 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class='o6cuMc Jj6Lae']"}
+  (Session info: chrome=120.0.6099.130)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [58bad37478ccfdcb36702c95625819c3, findElement {using=xpath, value=//div[@class='o6cuMc Jj6Lae']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61290}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61290/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 58bad37478ccfdcb36702c95625819c3</t>
   </si>
 </sst>
 </file>
@@ -870,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -1057,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
